--- a/spliced/walkingToRunning/2023-03-24_10-00-03/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-24_10-00-03/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-10.12347984313965</v>
+        <v>3.43527889251709</v>
       </c>
       <c r="B2" t="n">
-        <v>-12.30102252960205</v>
+        <v>-5.793748378753662</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7924041748046875</v>
+        <v>33.75442886352539</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-10.5097599029541</v>
+        <v>3.264275550842285</v>
       </c>
       <c r="B3" t="n">
-        <v>-14.70972919464111</v>
+        <v>-8.339526176452637</v>
       </c>
       <c r="C3" t="n">
-        <v>2.053862571716309</v>
+        <v>33.21075820922852</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-10.50637054443359</v>
+        <v>-2.304214000701904</v>
       </c>
       <c r="B4" t="n">
-        <v>-7.368468284606934</v>
+        <v>-44.59181213378906</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.09868168830871581</v>
+        <v>10.13076019287109</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-10.30328369140625</v>
+        <v>-2.632879257202148</v>
       </c>
       <c r="B5" t="n">
-        <v>-7.873513221740723</v>
+        <v>-47.35254669189453</v>
       </c>
       <c r="C5" t="n">
-        <v>1.344472646713257</v>
+        <v>16.20354652404785</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>19.79137802124023</v>
+        <v>-20.92312431335449</v>
       </c>
       <c r="B6" t="n">
-        <v>-21.5272388458252</v>
+        <v>-10.33131408691406</v>
       </c>
       <c r="C6" t="n">
-        <v>12.6630449295044</v>
+        <v>-20.38119125366211</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>19.90750885009766</v>
+        <v>-20.04123497009277</v>
       </c>
       <c r="B7" t="n">
-        <v>-21.83480453491211</v>
+        <v>-3.740296125411987</v>
       </c>
       <c r="C7" t="n">
-        <v>12.84930896759033</v>
+        <v>-22.7781810760498</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-11.76535415649414</v>
+        <v>-13.83809471130371</v>
       </c>
       <c r="B8" t="n">
-        <v>-6.525378227233887</v>
+        <v>-1.457606315612793</v>
       </c>
       <c r="C8" t="n">
-        <v>-5.198892593383789</v>
+        <v>10.62628936767578</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-11.8818187713623</v>
+        <v>-15.24413108825684</v>
       </c>
       <c r="B9" t="n">
-        <v>-5.1168212890625</v>
+        <v>-5.868594169616699</v>
       </c>
       <c r="C9" t="n">
-        <v>-6.782471179962158</v>
+        <v>10.52801132202148</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-11.70742130279541</v>
+        <v>-68.24240875244141</v>
       </c>
       <c r="B10" t="n">
-        <v>-4.451218605041504</v>
+        <v>-37.54502487182617</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.025445699691772</v>
+        <v>-25.38205528259277</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-11.47331142425537</v>
+        <v>-69.99400329589844</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.668012857437134</v>
+        <v>-36.24868774414063</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.327283382415771</v>
+        <v>-23.62584495544434</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.293003082275391</v>
+        <v>3.574422836303711</v>
       </c>
       <c r="B12" t="n">
-        <v>-5.035791397094727</v>
+        <v>-10.55799293518066</v>
       </c>
       <c r="C12" t="n">
-        <v>4.699301242828369</v>
+        <v>-1.943589687347412</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6.521552085876465</v>
+        <v>1.990053176879883</v>
       </c>
       <c r="B13" t="n">
-        <v>-6.169154644012451</v>
+        <v>-4.801568031311035</v>
       </c>
       <c r="C13" t="n">
-        <v>4.261832237243652</v>
+        <v>-0.5777735710144043</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3.43527889251709</v>
+        <v>15.68469429016113</v>
       </c>
       <c r="B14" t="n">
-        <v>-5.793748378753662</v>
+        <v>14.39326095581055</v>
       </c>
       <c r="C14" t="n">
-        <v>33.75442886352539</v>
+        <v>3.627434253692627</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.264275550842285</v>
+        <v>15.73915863037109</v>
       </c>
       <c r="B15" t="n">
-        <v>-8.339526176452637</v>
+        <v>7.167607307434082</v>
       </c>
       <c r="C15" t="n">
-        <v>33.21075820922852</v>
+        <v>5.527215480804443</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-2.304214000701904</v>
+        <v>-0.1553750038146972</v>
       </c>
       <c r="B16" t="n">
-        <v>-44.59181213378906</v>
+        <v>10.89957809448242</v>
       </c>
       <c r="C16" t="n">
-        <v>10.13076019287109</v>
+        <v>-15.06903266906738</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-2.632879257202148</v>
+        <v>-0.4681458473205566</v>
       </c>
       <c r="B17" t="n">
-        <v>-47.35254669189453</v>
+        <v>11.8446626663208</v>
       </c>
       <c r="C17" t="n">
-        <v>16.20354652404785</v>
+        <v>-15.58957099914551</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-20.92312431335449</v>
+        <v>9.029394149780272</v>
       </c>
       <c r="B18" t="n">
-        <v>-10.33131408691406</v>
+        <v>-76.68982696533203</v>
       </c>
       <c r="C18" t="n">
-        <v>-20.38119125366211</v>
+        <v>2.083036422729492</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-20.04123497009277</v>
+        <v>9.611247062683104</v>
       </c>
       <c r="B19" t="n">
-        <v>-3.740296125411987</v>
+        <v>-76.88915252685547</v>
       </c>
       <c r="C19" t="n">
-        <v>-22.7781810760498</v>
+        <v>1.387777328491211</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-13.83809471130371</v>
+        <v>-11.94809913635254</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.457606315612793</v>
+        <v>10.77702140808106</v>
       </c>
       <c r="C20" t="n">
-        <v>10.62628936767578</v>
+        <v>4.135905742645264</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-15.24413108825684</v>
+        <v>-66.71106719970703</v>
       </c>
       <c r="B21" t="n">
-        <v>-5.868594169616699</v>
+        <v>-81.49526214599609</v>
       </c>
       <c r="C21" t="n">
-        <v>10.52801132202148</v>
+        <v>59.02106475830078</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-43.36343383789063</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-8.654863357543945</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-11.20723152160644</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-40.74956512451172</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-3.842054843902588</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-15.99789905548096</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-8.164802551269531</v>
+      </c>
+      <c r="B24" t="n">
+        <v>7.02423906326294</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-4.845988273620605</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-8.398514747619629</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4.322819232940674</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-5.664791107177734</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-79.12488555908203</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-28.08302688598633</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-31.37481689453125</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-81.6524658203125</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-26.21007919311523</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-27.36414909362793</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-9.369277954101562</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-24.22552871704102</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-6.347414493560791</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-8.832977294921875</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-17.93884468078613</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-7.180578708648682</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-12.03362846374512</v>
+      </c>
+      <c r="B30" t="n">
+        <v>20.78299713134766</v>
+      </c>
+      <c r="C30" t="n">
+        <v>6.19299840927124</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-11.60475063323975</v>
+      </c>
+      <c r="B31" t="n">
+        <v>14.68077850341797</v>
+      </c>
+      <c r="C31" t="n">
+        <v>6.681206226348877</v>
       </c>
     </row>
   </sheetData>
